--- a/test/読み取り先 dest.xlsx
+++ b/test/読み取り先 dest.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e1e761a4b3430ee0/git_work/KubotaHA/TranscribeExcelData/test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\hkubota\github\TranscribeExcelData\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{52B85099-6990-4320-9CD8-272625149E46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14017247-4955-4883-BB4A-AC26C613B312}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F63A2E0-7C71-45AC-A9AD-A83414CCDFC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44055" yWindow="4560" windowWidth="11670" windowHeight="21435" xr2:uid="{90AC207A-EF8E-49E0-BAC3-99B3184B1A4F}"/>
+    <workbookView xWindow="20505" yWindow="14040" windowWidth="25950" windowHeight="16095" activeTab="1" xr2:uid="{90AC207A-EF8E-49E0-BAC3-99B3184B1A4F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="読み取り先1" sheetId="1" r:id="rId1"/>
+    <sheet name="読み取り先2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="40">
   <si>
     <t>カラム1</t>
     <phoneticPr fontId="1"/>
@@ -170,6 +171,16 @@
   </si>
   <si>
     <t>読み取りテストコメント31</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>読み取り テストコメント 1-2</t>
+    <rPh sb="0" eb="1">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ト</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -233,23 +244,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -568,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6A32A39-1044-4546-9492-BA7EF3989C03}">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -662,79 +667,41 @@
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
+      <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
@@ -773,47 +740,39 @@
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="4"/>
+      <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
@@ -821,12 +780,244 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E5:G8"/>
+    <mergeCell ref="E15:F16"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C062408-AB37-4A6B-A5AD-9E8F8A26ECF3}">
+  <dimension ref="A1:P27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A12" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A13" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A14" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A19" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A22" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E27" t="s">
         <v>38</v>
       </c>
